--- a/baseballdatabank-master/core/2019.xlsx
+++ b/baseballdatabank-master/core/2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starm\Desktop\BaseballStats\baseballdatabank-master\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE897E51-C059-47C0-BFD8-B2AA2D649024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D46E1-E073-4528-A355-B281942BF323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="6930" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="68">
   <si>
     <t>2019</t>
   </si>
@@ -1728,8 +1728,8 @@
   </sheetPr>
   <dimension ref="A1:IV200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -8576,7 +8576,9 @@
         <v>42181</v>
       </c>
       <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
+      <c r="C102" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="16" t="s">
@@ -8629,7 +8631,7 @@
       </c>
       <c r="AG102" s="20">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="20.100000000000001" customHeight="1">
@@ -15179,15 +15181,15 @@
         <v>81</v>
       </c>
       <c r="C197" s="39">
-        <f>COUNTA(C3:C196)</f>
+        <f>COUNTA(C3:C196)-1</f>
         <v>81</v>
       </c>
-      <c r="D197" s="39">
-        <f t="shared" ref="D197:AE197" si="30">COUNTA(D3:D196)-1</f>
+      <c r="D197" s="16">
+        <f>COUNTA(D3:D196)-1</f>
         <v>81</v>
       </c>
       <c r="E197" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D197:AE197" si="30">COUNTA(E3:E196)-1</f>
         <v>81</v>
       </c>
       <c r="F197" s="39">
@@ -15300,7 +15302,7 @@
       </c>
       <c r="AG197" s="20">
         <f>SUM(AG3:AG196)</f>
-        <v>2430</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="198" spans="1:33" ht="20.100000000000001" customHeight="1">
